--- a/DOCS/Веб-платформа управления изменениями/Веб-платформа управления изменениями — Сроки реализации.xlsx
+++ b/DOCS/Веб-платформа управления изменениями/Веб-платформа управления изменениями — Сроки реализации.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Веб-платформа управления изменениями\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A3A22A-B45D-49BB-89D9-7CFFD09FFFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D3E5B2-CADE-44E6-8AA5-3E877A1ACAC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,24 +108,15 @@
     <t>Результат этапа</t>
   </si>
   <si>
-    <t>25.01.2021</t>
-  </si>
-  <si>
     <t>Собранная информация</t>
   </si>
   <si>
     <t>Подготовка паспорта проекта</t>
   </si>
   <si>
-    <t>8.02.2021</t>
-  </si>
-  <si>
     <t>Готовый паспорт проект</t>
   </si>
   <si>
-    <t>9.02.2021</t>
-  </si>
-  <si>
     <t>Базовый функционал работы системы</t>
   </si>
   <si>
@@ -210,13 +201,22 @@
     <t>4 модуль: Социальное - подача заявок на социальные выплаты</t>
   </si>
   <si>
-    <t>4 модуль: Кадры - вакансии на предприятии и заказ заявки с места работы</t>
-  </si>
-  <si>
     <t>4 модуль: Учебный центр - информация по повышению квалификации и подача заявки на обучение</t>
   </si>
   <si>
     <t>Разработка 4 модуля: Служба управления персоналом</t>
+  </si>
+  <si>
+    <t>1.02.2021</t>
+  </si>
+  <si>
+    <t>15.02.2021</t>
+  </si>
+  <si>
+    <t>4 модуль: Кадры - вакансии на предприятии и выдача справок с места работы</t>
+  </si>
+  <si>
+    <t>12.02.2021</t>
   </si>
 </sst>
 </file>
@@ -712,22 +712,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>16564</xdr:rowOff>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5789544</xdr:colOff>
+      <xdr:colOff>5810152</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>321236</xdr:rowOff>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718DAF01-4F9B-485E-B4E5-BB4677D893D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597ABB1F-75B6-4A17-8F6D-B3565F635853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,8 +743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="132522" y="5756412"/>
-          <a:ext cx="5657022" cy="5878867"/>
+          <a:off x="122465" y="5728607"/>
+          <a:ext cx="5687687" cy="5646964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,19 +1073,19 @@
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="24">
         <f>B2+C2+D2</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <f>_xlfn.CEILING.MATH(E2*1.47)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" s="27">
         <f>E2*8</f>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1125,15 +1125,15 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="2"/>
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -1471,7 +1471,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3">
         <v>8</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B27" s="11">
         <f>SUM(B2:B26)</f>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" s="11">
         <f>SUM(C2:C26)</f>
@@ -1614,19 +1614,19 @@
       </c>
       <c r="D27" s="11">
         <f>SUM(D2:D26)</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="19">
         <f>B27+C27+D27</f>
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F27" s="19">
         <f>_xlfn.CEILING.MATH(E27*1.47)</f>
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G27" s="20">
         <f>E27*8</f>
-        <v>1360</v>
+        <v>1320</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="13"/>
@@ -1664,13 +1664,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="37">
+        <v>10</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>25</v>
-      </c>
-      <c r="E30" s="37">
-        <v>11</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>26</v>
       </c>
       <c r="H30" s="16"/>
     </row>
@@ -1679,16 +1679,16 @@
         <v>2</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E31" s="37">
         <v>1</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1699,13 +1699,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E32" s="37">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1716,13 +1716,13 @@
         <v>11</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E33" s="37">
         <v>32</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1733,13 +1733,13 @@
         <v>13</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E34" s="37">
         <v>33</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1747,16 +1747,16 @@
         <v>6</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E35" s="37">
         <v>10</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -1764,16 +1764,16 @@
         <v>7</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E36" s="37">
         <v>7</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1784,13 +1784,13 @@
         <v>19</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E37" s="37">
         <v>7</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -1798,16 +1798,16 @@
         <v>9</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E38" s="37">
         <v>7</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,13 +1818,13 @@
         <v>18</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E39" s="37">
         <v>30</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -1832,16 +1832,16 @@
         <v>11</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E40" s="37">
         <v>7</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1849,16 +1849,16 @@
         <v>12</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E41" s="37">
         <v>1</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1869,13 +1869,14 @@
         <v>6</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E42" s="46">
-        <v>170</v>
+        <f>SUM(E30:E41)</f>
+        <v>165</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/DOCS/Веб-платформа управления изменениями/Веб-платформа управления изменениями — Сроки реализации.xlsx
+++ b/DOCS/Веб-платформа управления изменениями/Веб-платформа управления изменениями — Сроки реализации.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Веб-платформа управления изменениями\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D3E5B2-CADE-44E6-8AA5-3E877A1ACAC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D88709-DC4A-4D03-9B7E-B8C3E47B5506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,9 +718,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5810152</xdr:colOff>
+      <xdr:colOff>5892710</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -743,8 +743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="122465" y="5728607"/>
-          <a:ext cx="5687687" cy="5646964"/>
+          <a:off x="122465" y="5723805"/>
+          <a:ext cx="5770245" cy="5762224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
